--- a/revolut.xlsx
+++ b/revolut.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="228">
   <si>
     <t>Date</t>
   </si>
@@ -278,6 +278,423 @@
   </si>
   <si>
     <t>DXCM</t>
+  </si>
+  <si>
+    <t>2024-07-30T15:27:05.314Z</t>
+  </si>
+  <si>
+    <t>2024-07-30T15:44:23.928Z</t>
+  </si>
+  <si>
+    <t>MRK</t>
+  </si>
+  <si>
+    <t>2024-08-06T13:57:07.080680Z</t>
+  </si>
+  <si>
+    <t>2024-08-06T14:10:47.017Z</t>
+  </si>
+  <si>
+    <t>JMIA</t>
+  </si>
+  <si>
+    <t>2024-08-19T15:32:41.114Z</t>
+  </si>
+  <si>
+    <t>2024-08-19T15:33:00.338Z</t>
+  </si>
+  <si>
+    <t>LQDA</t>
+  </si>
+  <si>
+    <t>2024-08-20T13:59:29.825Z</t>
+  </si>
+  <si>
+    <t>2024-08-20T13:59:55.232Z</t>
+  </si>
+  <si>
+    <t>TEM</t>
+  </si>
+  <si>
+    <t>2024-08-20T14:20:56.219Z</t>
+  </si>
+  <si>
+    <t>2024-08-20T14:22:43.881Z</t>
+  </si>
+  <si>
+    <t>SPRY</t>
+  </si>
+  <si>
+    <t>2024-08-20T14:36:50.200Z</t>
+  </si>
+  <si>
+    <t>2024-08-20T15:07:59.590Z</t>
+  </si>
+  <si>
+    <t>2024-08-20T19:22:16.019Z</t>
+  </si>
+  <si>
+    <t>2024-08-20T19:22:43.310Z</t>
+  </si>
+  <si>
+    <t>2024-08-20T19:23:00.298Z</t>
+  </si>
+  <si>
+    <t>2024-08-20T19:23:16.023Z</t>
+  </si>
+  <si>
+    <t>2024-08-20T19:23:32.377Z</t>
+  </si>
+  <si>
+    <t>2024-08-20T19:23:47.835Z</t>
+  </si>
+  <si>
+    <t>2024-08-20T19:49:45.277Z</t>
+  </si>
+  <si>
+    <t>GDS</t>
+  </si>
+  <si>
+    <t>2024-08-21T13:56:02.617Z</t>
+  </si>
+  <si>
+    <t>2024-08-21T15:15:00.646Z</t>
+  </si>
+  <si>
+    <t>KGC</t>
+  </si>
+  <si>
+    <t>2024-08-21T16:57:24.481Z</t>
+  </si>
+  <si>
+    <t>2024-08-21T19:12:44.840Z</t>
+  </si>
+  <si>
+    <t>PAGS</t>
+  </si>
+  <si>
+    <t>2024-08-22T13:38:42.844Z</t>
+  </si>
+  <si>
+    <t>2024-08-22T16:31:14.108Z</t>
+  </si>
+  <si>
+    <t>SHC</t>
+  </si>
+  <si>
+    <t>2024-08-23T16:50:02.956Z</t>
+  </si>
+  <si>
+    <t>2024-08-23T17:22:56.252Z</t>
+  </si>
+  <si>
+    <t>TBBB</t>
+  </si>
+  <si>
+    <t>2024-08-23T19:14:30.367Z</t>
+  </si>
+  <si>
+    <t>2024-08-23T19:29:46.173Z</t>
+  </si>
+  <si>
+    <t>TWO</t>
+  </si>
+  <si>
+    <t>2024-08-26T14:24:20.840Z</t>
+  </si>
+  <si>
+    <t>2024-08-26T14:28:51.452Z</t>
+  </si>
+  <si>
+    <t>BARK</t>
+  </si>
+  <si>
+    <t>2024-08-26T18:46:39.283Z</t>
+  </si>
+  <si>
+    <t>2024-08-26T18:47:36.603Z</t>
+  </si>
+  <si>
+    <t>FRBA</t>
+  </si>
+  <si>
+    <t>2024-09-03T13:54:03.176Z</t>
+  </si>
+  <si>
+    <t>2024-09-03T13:55:17.394Z</t>
+  </si>
+  <si>
+    <t>DYN</t>
+  </si>
+  <si>
+    <t>2024-09-03T14:09:45.770Z</t>
+  </si>
+  <si>
+    <t>2024-09-04T05:23:51.439092Z</t>
+  </si>
+  <si>
+    <t>2024-09-04T05:24:17.671835Z</t>
+  </si>
+  <si>
+    <t>2024-09-04T13:35:02.207Z</t>
+  </si>
+  <si>
+    <t>REVG</t>
+  </si>
+  <si>
+    <t>2024-09-04T14:00:54.004Z</t>
+  </si>
+  <si>
+    <t>2024-09-05T13:34:28.570Z</t>
+  </si>
+  <si>
+    <t>VRNT</t>
+  </si>
+  <si>
+    <t>2024-09-05T13:48:17.985Z</t>
+  </si>
+  <si>
+    <t>2024-09-05T14:06:46.999Z</t>
+  </si>
+  <si>
+    <t>ASTS</t>
+  </si>
+  <si>
+    <t>2024-09-05T15:59:37.770Z</t>
+  </si>
+  <si>
+    <t>2024-09-05T15:59:56.539Z</t>
+  </si>
+  <si>
+    <t>NSSC</t>
+  </si>
+  <si>
+    <t>2024-09-05T16:50:09.666Z</t>
+  </si>
+  <si>
+    <t>2024-09-06T13:35:08.520Z</t>
+  </si>
+  <si>
+    <t>2024-09-06T14:55:02.474Z</t>
+  </si>
+  <si>
+    <t>2024-09-06T15:02:07.697Z</t>
+  </si>
+  <si>
+    <t>2024-09-06T15:08:50.262Z</t>
+  </si>
+  <si>
+    <t>2024-09-06T15:55:48.495Z</t>
+  </si>
+  <si>
+    <t>2024-09-06T16:12:34.683Z</t>
+  </si>
+  <si>
+    <t>2024-09-09T13:37:21.167Z</t>
+  </si>
+  <si>
+    <t>2024-09-09T13:46:30.542Z</t>
+  </si>
+  <si>
+    <t>2024-09-09T13:49:32.473Z</t>
+  </si>
+  <si>
+    <t>TNGX</t>
+  </si>
+  <si>
+    <t>2024-09-09T14:04:03.545Z</t>
+  </si>
+  <si>
+    <t>2024-09-09T14:04:52.871Z</t>
+  </si>
+  <si>
+    <t>VIRC</t>
+  </si>
+  <si>
+    <t>2024-09-09T14:12:49.672Z</t>
+  </si>
+  <si>
+    <t>2024-09-09T14:14:24.211Z</t>
+  </si>
+  <si>
+    <t>2024-09-09T14:19:50.662Z</t>
+  </si>
+  <si>
+    <t>2024-09-09T14:28:55.649Z</t>
+  </si>
+  <si>
+    <t>AMCX</t>
+  </si>
+  <si>
+    <t>2024-09-09T14:38:49.698Z</t>
+  </si>
+  <si>
+    <t>2024-09-09T15:13:01.018Z</t>
+  </si>
+  <si>
+    <t>EGIOQ</t>
+  </si>
+  <si>
+    <t>2024-09-09T15:52:01.045Z</t>
+  </si>
+  <si>
+    <t>2024-09-10T13:33:48.263Z</t>
+  </si>
+  <si>
+    <t>ALLY</t>
+  </si>
+  <si>
+    <t>2024-09-10T17:13:57.995Z</t>
+  </si>
+  <si>
+    <t>SELL - STOP</t>
+  </si>
+  <si>
+    <t>2024-09-11T14:00:49.669Z</t>
+  </si>
+  <si>
+    <t>GME</t>
+  </si>
+  <si>
+    <t>2024-09-11T14:17:15.034Z</t>
+  </si>
+  <si>
+    <t>2024-09-11T14:23:47.819Z</t>
+  </si>
+  <si>
+    <t>TRML</t>
+  </si>
+  <si>
+    <t>2024-09-11T16:37:54.515Z</t>
+  </si>
+  <si>
+    <t>2024-09-11T16:56:32.085Z</t>
+  </si>
+  <si>
+    <t>WOW</t>
+  </si>
+  <si>
+    <t>2024-09-11T17:17:34.974Z</t>
+  </si>
+  <si>
+    <t>2024-09-11T17:24:04.687Z</t>
+  </si>
+  <si>
+    <t>ORN</t>
+  </si>
+  <si>
+    <t>2024-09-11T17:55:50.239Z</t>
+  </si>
+  <si>
+    <t>2024-09-12T13:36:24.497Z</t>
+  </si>
+  <si>
+    <t>FULC</t>
+  </si>
+  <si>
+    <t>2024-09-12T13:42:03.329Z</t>
+  </si>
+  <si>
+    <t>2024-09-12T13:43:18.435Z</t>
+  </si>
+  <si>
+    <t>AVNW</t>
+  </si>
+  <si>
+    <t>2024-09-12T13:46:55.290Z</t>
+  </si>
+  <si>
+    <t>2024-09-12T13:48:00.704Z</t>
+  </si>
+  <si>
+    <t>2024-09-12T14:01:14.027Z</t>
+  </si>
+  <si>
+    <t>2024-09-12T14:02:50.045Z</t>
+  </si>
+  <si>
+    <t>2024-09-12T14:03:51.096Z</t>
+  </si>
+  <si>
+    <t>2024-09-12T14:12:10.401Z</t>
+  </si>
+  <si>
+    <t>2024-09-12T14:20:05.295Z</t>
+  </si>
+  <si>
+    <t>2024-09-12T14:29:10.331Z</t>
+  </si>
+  <si>
+    <t>RYDE</t>
+  </si>
+  <si>
+    <t>2024-09-12T16:25:27.380Z</t>
+  </si>
+  <si>
+    <t>2024-09-12T16:43:51.563Z</t>
+  </si>
+  <si>
+    <t>MODV</t>
+  </si>
+  <si>
+    <t>2024-09-12T18:00:12.385Z</t>
+  </si>
+  <si>
+    <t>2024-09-12T18:24:26.019Z</t>
+  </si>
+  <si>
+    <t>2024-09-12T19:38:15.057Z</t>
+  </si>
+  <si>
+    <t>2024-09-13T13:54:02.946Z</t>
+  </si>
+  <si>
+    <t>CAL</t>
+  </si>
+  <si>
+    <t>2024-09-13T14:00:23.831Z</t>
+  </si>
+  <si>
+    <t>2024-09-13T14:02:13.916Z</t>
+  </si>
+  <si>
+    <t>SMWB</t>
+  </si>
+  <si>
+    <t>2024-09-13T14:58:40.946Z</t>
+  </si>
+  <si>
+    <t>2024-09-13T15:32:07.651Z</t>
+  </si>
+  <si>
+    <t>TERN</t>
+  </si>
+  <si>
+    <t>2024-09-13T18:06:29.877Z</t>
+  </si>
+  <si>
+    <t>2024-09-16T13:37:18.901Z</t>
+  </si>
+  <si>
+    <t>ITOS</t>
+  </si>
+  <si>
+    <t>2024-09-16T13:42:02.053Z</t>
+  </si>
+  <si>
+    <t>2024-09-16T13:48:29.558Z</t>
+  </si>
+  <si>
+    <t>2024-09-16T13:54:36.948Z</t>
+  </si>
+  <si>
+    <t>2024-09-16T13:59:25.017Z</t>
+  </si>
+  <si>
+    <t>2024-09-16T15:22:35.569Z</t>
+  </si>
+  <si>
+    <t>2024-09-17T06:12:10.785262Z</t>
   </si>
 </sst>
 </file>
@@ -315,15 +732,9 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -336,6 +747,326 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr lastClr="000000" val="windowText"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln cap="flat" cmpd="sng" w="9525" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln cap="flat" cmpd="sng" w="25400" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln cap="flat" cmpd="sng" w="38100" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" rotWithShape="0" dir="5400000" dist="20000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" rotWithShape="0" dir="5400000" dist="23000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" rotWithShape="0" dir="5400000" dist="23000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT h="25400" w="63500"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -344,9 +1075,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="6" width="14.43"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -372,7 +1106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -389,7 +1123,7 @@
         <v>0.2493</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -415,7 +1149,7 @@
         <v>0.2493</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -432,7 +1166,7 @@
         <v>0.2494</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -458,7 +1192,7 @@
         <v>0.2493</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -475,7 +1209,7 @@
         <v>0.2519</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -492,7 +1226,7 @@
         <v>0.2471</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -518,7 +1252,7 @@
         <v>0.2468</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -535,7 +1269,7 @@
         <v>0.2489</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -555,7 +1289,7 @@
         <v>0.2446</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -575,7 +1309,7 @@
         <v>0.2497</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -595,7 +1329,7 @@
         <v>0.2491</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -615,7 +1349,7 @@
         <v>0.2547</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -632,7 +1366,7 @@
         <v>0.2539</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -658,7 +1392,7 @@
         <v>0.2539</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -675,7 +1409,7 @@
         <v>0.2485</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -701,7 +1435,7 @@
         <v>0.2486</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -727,7 +1461,7 @@
         <v>0.2488</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -753,7 +1487,7 @@
         <v>0.2493</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -779,7 +1513,7 @@
         <v>0.2493</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -805,7 +1539,7 @@
         <v>0.2493</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
@@ -831,7 +1565,7 @@
         <v>0.2493</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
@@ -848,7 +1582,7 @@
         <v>0.2477</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
@@ -874,7 +1608,7 @@
         <v>0.2476</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
@@ -900,7 +1634,7 @@
         <v>0.2501</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
@@ -926,7 +1660,7 @@
         <v>0.2506</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
@@ -952,7 +1686,7 @@
         <v>0.2513</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
@@ -978,7 +1712,7 @@
         <v>0.2513</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
@@ -995,7 +1729,7 @@
         <v>0.2491</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -1021,7 +1755,7 @@
         <v>0.2477</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>52</v>
       </c>
@@ -1047,7 +1781,7 @@
         <v>0.2449</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>53</v>
       </c>
@@ -1073,7 +1807,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>55</v>
       </c>
@@ -1099,7 +1833,7 @@
         <v>0.2492</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -1125,7 +1859,7 @@
         <v>0.2491</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>58</v>
       </c>
@@ -1151,7 +1885,7 @@
         <v>0.252</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>59</v>
       </c>
@@ -1177,7 +1911,7 @@
         <v>0.2536</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
@@ -1194,7 +1928,7 @@
         <v>0.2549</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>61</v>
       </c>
@@ -1220,7 +1954,7 @@
         <v>0.255</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -1246,7 +1980,7 @@
         <v>0.2548</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -1272,7 +2006,7 @@
         <v>0.2545</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>65</v>
       </c>
@@ -1298,7 +2032,7 @@
         <v>0.2545</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>66</v>
       </c>
@@ -1324,7 +2058,7 @@
         <v>0.2546</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>68</v>
       </c>
@@ -1350,7 +2084,7 @@
         <v>0.2553</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>69</v>
       </c>
@@ -1376,7 +2110,7 @@
         <v>0.2552</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>71</v>
       </c>
@@ -1402,7 +2136,7 @@
         <v>0.2547</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>72</v>
       </c>
@@ -1428,7 +2162,7 @@
         <v>0.2547</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>74</v>
       </c>
@@ -1454,7 +2188,7 @@
         <v>0.2554</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>75</v>
       </c>
@@ -1480,7 +2214,7 @@
         <v>0.2553</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>77</v>
       </c>
@@ -1506,7 +2240,7 @@
         <v>0.2554</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>78</v>
       </c>
@@ -1532,7 +2266,7 @@
         <v>0.2554</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>80</v>
       </c>
@@ -1558,7 +2292,7 @@
         <v>0.2548</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>81</v>
       </c>
@@ -1584,7 +2318,7 @@
         <v>0.2548</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>83</v>
       </c>
@@ -1601,7 +2335,7 @@
         <v>0.2533</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>84</v>
       </c>
@@ -1627,7 +2361,7 @@
         <v>0.2533</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>86</v>
       </c>
@@ -1653,7 +2387,7 @@
         <v>0.255</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>87</v>
       </c>
@@ -1677,6 +2411,2648 @@
       </c>
       <c r="H56" s="1">
         <v>0.2551</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="1">
+        <v>3.17247715</v>
+      </c>
+      <c r="E57" s="2">
+        <v>69.99</v>
+      </c>
+      <c r="F57" s="2">
+        <v>222.01</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0.2523</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1.89475777</v>
+      </c>
+      <c r="E58" s="2">
+        <v>116.64</v>
+      </c>
+      <c r="F58" s="2">
+        <v>222.01</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0.2524</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="3">
+        <v>125.0</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0.2539</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="1">
+        <v>21.33980515</v>
+      </c>
+      <c r="E60" s="2">
+        <v>5.81</v>
+      </c>
+      <c r="F60" s="2">
+        <v>124.99</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0.2541</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="1">
+        <v>4.96614533</v>
+      </c>
+      <c r="E61" s="2">
+        <v>24.86</v>
+      </c>
+      <c r="F61" s="2">
+        <v>122.42</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0.2598</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="1">
+        <v>12.557394</v>
+      </c>
+      <c r="E62" s="2">
+        <v>9.67</v>
+      </c>
+      <c r="F62" s="2">
+        <v>122.42</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0.2598</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" s="1">
+        <v>12.557394</v>
+      </c>
+      <c r="E63" s="2">
+        <v>9.96</v>
+      </c>
+      <c r="F63" s="2">
+        <v>124.04</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0.2607</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1.7649591</v>
+      </c>
+      <c r="E64" s="2">
+        <v>69.69</v>
+      </c>
+      <c r="F64" s="2">
+        <v>124.04</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0.2607</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1.7649591</v>
+      </c>
+      <c r="E65" s="2">
+        <v>72.76</v>
+      </c>
+      <c r="F65" s="2">
+        <v>127.36</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.2606</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="1">
+        <v>7.95841209</v>
+      </c>
+      <c r="E66" s="2">
+        <v>15.87</v>
+      </c>
+      <c r="F66" s="2">
+        <v>127.37</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0.2606</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="1">
+        <v>7.95841209</v>
+      </c>
+      <c r="E67" s="2">
+        <v>16.26</v>
+      </c>
+      <c r="F67" s="2">
+        <v>128.31</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0.2605</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2.04959742</v>
+      </c>
+      <c r="E68" s="2">
+        <v>62.1</v>
+      </c>
+      <c r="F68" s="2">
+        <v>128.31</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0.2604</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1.89475777</v>
+      </c>
+      <c r="E69" s="2">
+        <v>115.01</v>
+      </c>
+      <c r="F69" s="2">
+        <v>216.86</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0.2609</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1.78307674</v>
+      </c>
+      <c r="E70" s="2">
+        <v>77.27</v>
+      </c>
+      <c r="F70" s="2">
+        <v>136.72</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.2609</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="1">
+        <v>14.35399061</v>
+      </c>
+      <c r="E71" s="2">
+        <v>8.92</v>
+      </c>
+      <c r="F71" s="3">
+        <v>127.0</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0.2608</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2.04959742</v>
+      </c>
+      <c r="E72" s="2">
+        <v>59.47</v>
+      </c>
+      <c r="F72" s="2">
+        <v>120.83</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0.2608</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="1">
+        <v>21.33980515</v>
+      </c>
+      <c r="E73" s="2">
+        <v>4.96</v>
+      </c>
+      <c r="F73" s="2">
+        <v>104.79</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0.2608</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="1">
+        <v>11.28380386</v>
+      </c>
+      <c r="E74" s="2">
+        <v>5.51</v>
+      </c>
+      <c r="F74" s="2">
+        <v>61.12</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0.2608</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="1">
+        <v>60.15003927</v>
+      </c>
+      <c r="E75" s="2">
+        <v>12.73</v>
+      </c>
+      <c r="F75" s="2">
+        <v>767.32</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0.2608</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="1">
+        <v>60.15003927</v>
+      </c>
+      <c r="E76" s="2">
+        <v>14.06</v>
+      </c>
+      <c r="F76" s="2">
+        <v>843.28</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0.2598</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="1">
+        <v>91.44456521</v>
+      </c>
+      <c r="E77" s="2">
+        <v>9.2</v>
+      </c>
+      <c r="F77" s="2">
+        <v>843.28</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0.2603</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="1">
+        <v>91.44456521</v>
+      </c>
+      <c r="E78" s="2">
+        <v>9.24</v>
+      </c>
+      <c r="F78" s="2">
+        <v>842.91</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0.2611</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="1">
+        <v>66.31624605</v>
+      </c>
+      <c r="E79" s="2">
+        <v>12.68</v>
+      </c>
+      <c r="F79" s="2">
+        <v>842.91</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0.2612</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="1">
+        <v>66.31624605</v>
+      </c>
+      <c r="E80" s="2">
+        <v>12.26</v>
+      </c>
+      <c r="F80" s="2">
+        <v>811.14</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0.2604</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="1">
+        <v>53.16951379</v>
+      </c>
+      <c r="E81" s="2">
+        <v>15.22</v>
+      </c>
+      <c r="F81" s="2">
+        <v>811.14</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" s="1">
+        <v>0.2602</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="1">
+        <v>53.16951379</v>
+      </c>
+      <c r="E82" s="2">
+        <v>15.31</v>
+      </c>
+      <c r="F82" s="2">
+        <v>812.09</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0.2624</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="1">
+        <v>25.27965043</v>
+      </c>
+      <c r="E83" s="2">
+        <v>32.04</v>
+      </c>
+      <c r="F83" s="2">
+        <v>812.09</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0.2629</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="1">
+        <v>25.27965043</v>
+      </c>
+      <c r="E84" s="2">
+        <v>32.62</v>
+      </c>
+      <c r="F84" s="2">
+        <v>822.49</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0.2631</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="1">
+        <v>59.28540462</v>
+      </c>
+      <c r="E85" s="2">
+        <v>13.84</v>
+      </c>
+      <c r="F85" s="2">
+        <v>822.49</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0.263</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="1">
+        <v>59.28540462</v>
+      </c>
+      <c r="E86" s="2">
+        <v>14.03</v>
+      </c>
+      <c r="F86" s="2">
+        <v>829.73</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0.2612</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="1">
+        <v>478.58381502</v>
+      </c>
+      <c r="E87" s="2">
+        <v>1.73</v>
+      </c>
+      <c r="F87" s="2">
+        <v>829.73</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0.2612</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="1">
+        <v>478.58381502</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1.74</v>
+      </c>
+      <c r="F88" s="2">
+        <v>830.85</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0.2612</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="1">
+        <v>53.5203357</v>
+      </c>
+      <c r="E89" s="2">
+        <v>15.49</v>
+      </c>
+      <c r="F89" s="2">
+        <v>830.85</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0.2612</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="1">
+        <v>53.5203357</v>
+      </c>
+      <c r="E90" s="2">
+        <v>15.29</v>
+      </c>
+      <c r="F90" s="2">
+        <v>818.07</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0.259</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="1">
+        <v>31.10979794</v>
+      </c>
+      <c r="E91" s="2">
+        <v>26.23</v>
+      </c>
+      <c r="F91" s="2">
+        <v>818.07</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0.2591</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="1">
+        <v>31.10979794</v>
+      </c>
+      <c r="E92" s="2">
+        <v>31.31</v>
+      </c>
+      <c r="F92" s="2">
+        <v>971.61</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" s="1">
+        <v>0.2592</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93" s="2">
+        <v>-71.61</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H93" s="1">
+        <v>0.2589</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" s="2">
+        <v>71.61</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H94" s="1">
+        <v>0.2589</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="1">
+        <v>41.7861147</v>
+      </c>
+      <c r="E95" s="2">
+        <v>23.19</v>
+      </c>
+      <c r="F95" s="2">
+        <v>971.61</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95" s="1">
+        <v>0.259</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="1">
+        <v>41.7861147</v>
+      </c>
+      <c r="E96" s="2">
+        <v>26.19</v>
+      </c>
+      <c r="F96" s="2">
+        <v>1091.58</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H96" s="1">
+        <v>0.2595</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" s="1">
+        <v>21.60637129</v>
+      </c>
+      <c r="E97" s="2">
+        <v>27.31</v>
+      </c>
+      <c r="F97" s="2">
+        <v>591.58</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" s="1">
+        <v>0.2603</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98" s="1">
+        <v>21.60637129</v>
+      </c>
+      <c r="E98" s="2">
+        <v>25.27</v>
+      </c>
+      <c r="F98" s="2">
+        <v>544.57</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" s="1">
+        <v>0.2601</v>
+      </c>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="1">
+        <v>37.69790159</v>
+      </c>
+      <c r="E99" s="2">
+        <v>27.64</v>
+      </c>
+      <c r="F99" s="2">
+        <v>1044.57</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99" s="1">
+        <v>0.2597</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="1">
+        <v>37.69790159</v>
+      </c>
+      <c r="E100" s="2">
+        <v>28.39</v>
+      </c>
+      <c r="F100" s="2">
+        <v>1067.37</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" s="1">
+        <v>0.2596</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" s="1">
+        <v>31.74299344</v>
+      </c>
+      <c r="E101" s="2">
+        <v>33.54</v>
+      </c>
+      <c r="F101" s="2">
+        <v>1067.37</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H101" s="1">
+        <v>0.2596</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="1">
+        <v>31.74299344</v>
+      </c>
+      <c r="E102" s="2">
+        <v>34.77</v>
+      </c>
+      <c r="F102" s="2">
+        <v>1100.78</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H102" s="1">
+        <v>0.2597</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" s="1">
+        <v>31.10509915</v>
+      </c>
+      <c r="E103" s="2">
+        <v>35.3</v>
+      </c>
+      <c r="F103" s="2">
+        <v>1100.78</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H103" s="1">
+        <v>0.2601</v>
+      </c>
+    </row>
+    <row r="104" ht="15.75" customHeight="1">
+      <c r="A104" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" s="1">
+        <v>31.10509915</v>
+      </c>
+      <c r="E104" s="2">
+        <v>35.1</v>
+      </c>
+      <c r="F104" s="2">
+        <v>1089.11</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H104" s="1">
+        <v>0.2599</v>
+      </c>
+    </row>
+    <row r="105" ht="15.75" customHeight="1">
+      <c r="A105" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" s="1">
+        <v>33.69882133</v>
+      </c>
+      <c r="E105" s="2">
+        <v>32.24</v>
+      </c>
+      <c r="F105" s="2">
+        <v>1089.11</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H105" s="1">
+        <v>0.2606</v>
+      </c>
+    </row>
+    <row r="106" ht="15.75" customHeight="1">
+      <c r="A106" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="1">
+        <v>33.69882133</v>
+      </c>
+      <c r="E106" s="2">
+        <v>31.92</v>
+      </c>
+      <c r="F106" s="2">
+        <v>1072.99</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H106" s="1">
+        <v>0.2596</v>
+      </c>
+    </row>
+    <row r="107" ht="15.75" customHeight="1">
+      <c r="A107" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" s="1">
+        <v>40.25065863</v>
+      </c>
+      <c r="E107" s="2">
+        <v>26.57</v>
+      </c>
+      <c r="F107" s="2">
+        <v>1072.29</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H107" s="1">
+        <v>0.2594</v>
+      </c>
+    </row>
+    <row r="108" ht="15.75" customHeight="1">
+      <c r="A108" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D108" s="1">
+        <v>40.25065863</v>
+      </c>
+      <c r="E108" s="2">
+        <v>26.09</v>
+      </c>
+      <c r="F108" s="2">
+        <v>1047.58</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H108" s="1">
+        <v>0.2591</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75" customHeight="1">
+      <c r="A109" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" s="1">
+        <v>30.1989544</v>
+      </c>
+      <c r="E109" s="2">
+        <v>34.43</v>
+      </c>
+      <c r="F109" s="2">
+        <v>1042.28</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H109" s="1">
+        <v>0.2588</v>
+      </c>
+    </row>
+    <row r="110" ht="15.75" customHeight="1">
+      <c r="A110" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D110" s="1">
+        <v>30.1989544</v>
+      </c>
+      <c r="E110" s="2">
+        <v>33.52</v>
+      </c>
+      <c r="F110" s="2">
+        <v>1009.76</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H110" s="1">
+        <v>0.2589</v>
+      </c>
+    </row>
+    <row r="111" ht="15.75" customHeight="1">
+      <c r="A111" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" s="1">
+        <v>118.78429073</v>
+      </c>
+      <c r="E111" s="2">
+        <v>8.53</v>
+      </c>
+      <c r="F111" s="2">
+        <v>1015.76</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H111" s="1">
+        <v>0.259</v>
+      </c>
+    </row>
+    <row r="112" ht="15.75" customHeight="1">
+      <c r="A112" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" s="1">
+        <v>118.78429073</v>
+      </c>
+      <c r="E112" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="F112" s="2">
+        <v>1054.87</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H112" s="1">
+        <v>0.2587</v>
+      </c>
+    </row>
+    <row r="113" ht="15.75" customHeight="1">
+      <c r="A113" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" s="1">
+        <v>83.64387917</v>
+      </c>
+      <c r="E113" s="2">
+        <v>12.58</v>
+      </c>
+      <c r="F113" s="2">
+        <v>1054.87</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H113" s="1">
+        <v>0.2587</v>
+      </c>
+    </row>
+    <row r="114" ht="15.75" customHeight="1">
+      <c r="A114" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" s="1">
+        <v>83.64387917</v>
+      </c>
+      <c r="E114" s="2">
+        <v>13.04</v>
+      </c>
+      <c r="F114" s="2">
+        <v>1088.34</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H114" s="1">
+        <v>0.2586</v>
+      </c>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" s="1">
+        <v>82.84057971</v>
+      </c>
+      <c r="E115" s="2">
+        <v>13.11</v>
+      </c>
+      <c r="F115" s="2">
+        <v>1088.34</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H115" s="1">
+        <v>0.2586</v>
+      </c>
+    </row>
+    <row r="116" ht="15.75" customHeight="1">
+      <c r="A116" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116" s="1">
+        <v>82.84057971</v>
+      </c>
+      <c r="E116" s="2">
+        <v>12.98</v>
+      </c>
+      <c r="F116" s="2">
+        <v>1072.92</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H116" s="1">
+        <v>0.2588</v>
+      </c>
+    </row>
+    <row r="117" ht="15.75" customHeight="1">
+      <c r="A117" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" s="1">
+        <v>129.27415458</v>
+      </c>
+      <c r="E117" s="2">
+        <v>8.28</v>
+      </c>
+      <c r="F117" s="2">
+        <v>1072.92</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H117" s="1">
+        <v>0.2588</v>
+      </c>
+    </row>
+    <row r="118" ht="15.75" customHeight="1">
+      <c r="A118" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" s="1">
+        <v>129.27415458</v>
+      </c>
+      <c r="E118" s="2">
+        <v>8.26</v>
+      </c>
+      <c r="F118" s="2">
+        <v>1065.23</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H118" s="1">
+        <v>0.2586</v>
+      </c>
+    </row>
+    <row r="119" ht="15.75" customHeight="1">
+      <c r="A119" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" s="1">
+        <v>795.32089552</v>
+      </c>
+      <c r="E119" s="2">
+        <v>1.34</v>
+      </c>
+      <c r="F119" s="2">
+        <v>1065.23</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H119" s="1">
+        <v>0.2587</v>
+      </c>
+    </row>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="A120" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D120" s="1">
+        <v>795.32089552</v>
+      </c>
+      <c r="E120" s="2">
+        <v>1.29</v>
+      </c>
+      <c r="F120" s="2">
+        <v>1023.63</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H120" s="1">
+        <v>0.2587</v>
+      </c>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="A121" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="1">
+        <v>29.58342989</v>
+      </c>
+      <c r="E121" s="2">
+        <v>34.52</v>
+      </c>
+      <c r="F121" s="2">
+        <v>1023.63</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H121" s="1">
+        <v>0.2581</v>
+      </c>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="A122" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D122" s="1">
+        <v>29.58342989</v>
+      </c>
+      <c r="E122" s="2">
+        <v>31.99</v>
+      </c>
+      <c r="F122" s="3">
+        <v>944.0</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H122" s="1">
+        <v>0.2581</v>
+      </c>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="A123" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="1">
+        <v>47.39355812</v>
+      </c>
+      <c r="E123" s="2">
+        <v>19.87</v>
+      </c>
+      <c r="F123" s="3">
+        <v>944.0</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H123" s="1">
+        <v>0.2572</v>
+      </c>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="A124" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D124" s="1">
+        <v>47.39355812</v>
+      </c>
+      <c r="E124" s="2">
+        <v>19.92</v>
+      </c>
+      <c r="F124" s="2">
+        <v>941.74</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H124" s="1">
+        <v>0.2573</v>
+      </c>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="A125" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" s="1">
+        <v>52.65526905</v>
+      </c>
+      <c r="E125" s="2">
+        <v>17.84</v>
+      </c>
+      <c r="F125" s="2">
+        <v>941.74</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H125" s="1">
+        <v>0.2571</v>
+      </c>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="A126" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D126" s="1">
+        <v>52.65526905</v>
+      </c>
+      <c r="E126" s="2">
+        <v>18.01</v>
+      </c>
+      <c r="F126" s="2">
+        <v>945.73</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H126" s="1">
+        <v>0.2571</v>
+      </c>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="A127" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" s="1">
+        <v>192.57142857</v>
+      </c>
+      <c r="E127" s="2">
+        <v>4.9</v>
+      </c>
+      <c r="F127" s="2">
+        <v>945.73</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H127" s="1">
+        <v>0.2571</v>
+      </c>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="A128" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D128" s="1">
+        <v>192.57142857</v>
+      </c>
+      <c r="E128" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="F128" s="2">
+        <v>960.62</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H128" s="1">
+        <v>0.2573</v>
+      </c>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="A129" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" s="1">
+        <v>166.1559792</v>
+      </c>
+      <c r="E129" s="2">
+        <v>5.77</v>
+      </c>
+      <c r="F129" s="2">
+        <v>960.62</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H129" s="1">
+        <v>0.2573</v>
+      </c>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="A130" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D130" s="1">
+        <v>166.1559792</v>
+      </c>
+      <c r="E130" s="2">
+        <v>5.75</v>
+      </c>
+      <c r="F130" s="2">
+        <v>952.12</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H130" s="1">
+        <v>0.2575</v>
+      </c>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="A131" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" s="1">
+        <v>318.86912751</v>
+      </c>
+      <c r="E131" s="2">
+        <v>2.98</v>
+      </c>
+      <c r="F131" s="2">
+        <v>952.12</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H131" s="1">
+        <v>0.2579</v>
+      </c>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="A132" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D132" s="1">
+        <v>318.86912751</v>
+      </c>
+      <c r="E132" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="F132" s="2">
+        <v>954.49</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H132" s="1">
+        <v>0.2579</v>
+      </c>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" s="1">
+        <v>48.27434077</v>
+      </c>
+      <c r="E133" s="2">
+        <v>19.72</v>
+      </c>
+      <c r="F133" s="2">
+        <v>954.49</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H133" s="1">
+        <v>0.2579</v>
+      </c>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="A134" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D134" s="1">
+        <v>48.27434077</v>
+      </c>
+      <c r="E134" s="2">
+        <v>19.71</v>
+      </c>
+      <c r="F134" s="2">
+        <v>948.94</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H134" s="1">
+        <v>0.2579</v>
+      </c>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="A135" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" s="1">
+        <v>296.83385579</v>
+      </c>
+      <c r="E135" s="2">
+        <v>3.19</v>
+      </c>
+      <c r="F135" s="2">
+        <v>948.94</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H135" s="1">
+        <v>0.2579</v>
+      </c>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="A136" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D136" s="1">
+        <v>296.83385579</v>
+      </c>
+      <c r="E136" s="2">
+        <v>3.32</v>
+      </c>
+      <c r="F136" s="2">
+        <v>983.31</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H136" s="1">
+        <v>0.2578</v>
+      </c>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="A137" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" s="1">
+        <v>286.06413994</v>
+      </c>
+      <c r="E137" s="2">
+        <v>3.43</v>
+      </c>
+      <c r="F137" s="2">
+        <v>983.31</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H137" s="1">
+        <v>0.2579</v>
+      </c>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="A138" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D138" s="1">
+        <v>286.06413994</v>
+      </c>
+      <c r="E138" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="F138" s="2">
+        <v>970.45</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H138" s="1">
+        <v>0.2579</v>
+      </c>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="A139" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" s="1">
+        <v>272.97752808</v>
+      </c>
+      <c r="E139" s="2">
+        <v>3.56</v>
+      </c>
+      <c r="F139" s="2">
+        <v>973.88</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H139" s="1">
+        <v>0.2579</v>
+      </c>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="A140" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D140" s="1">
+        <v>272.97752808</v>
+      </c>
+      <c r="E140" s="2">
+        <v>3.45</v>
+      </c>
+      <c r="F140" s="2">
+        <v>939.67</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H140" s="1">
+        <v>0.258</v>
+      </c>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="A141" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" s="1">
+        <v>284.14242424</v>
+      </c>
+      <c r="E141" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="F141" s="2">
+        <v>939.67</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H141" s="1">
+        <v>0.258</v>
+      </c>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="A142" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D142" s="1">
+        <v>284.14242424</v>
+      </c>
+      <c r="E142" s="2">
+        <v>3.07</v>
+      </c>
+      <c r="F142" s="2">
+        <v>870.38</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H142" s="1">
+        <v>0.2582</v>
+      </c>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="A143" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143" s="1">
+        <v>59.86827586</v>
+      </c>
+      <c r="E143" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="F143" s="2">
+        <v>870.38</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H143" s="1">
+        <v>0.258</v>
+      </c>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="A144" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D144" s="1">
+        <v>59.86827586</v>
+      </c>
+      <c r="E144" s="2">
+        <v>12.4</v>
+      </c>
+      <c r="F144" s="2">
+        <v>740.75</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H144" s="1">
+        <v>0.2586</v>
+      </c>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="A145" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" s="1">
+        <v>59.78155339</v>
+      </c>
+      <c r="E145" s="2">
+        <v>12.36</v>
+      </c>
+      <c r="F145" s="2">
+        <v>740.75</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H145" s="1">
+        <v>0.2586</v>
+      </c>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="A146" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D146" s="1">
+        <v>59.78155339</v>
+      </c>
+      <c r="E146" s="2">
+        <v>12.49</v>
+      </c>
+      <c r="F146" s="2">
+        <v>745.04</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H146" s="1">
+        <v>0.2589</v>
+      </c>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="A147" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147" s="1">
+        <v>23.59301587</v>
+      </c>
+      <c r="E147" s="2">
+        <v>31.5</v>
+      </c>
+      <c r="F147" s="2">
+        <v>745.04</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H147" s="1">
+        <v>0.2595</v>
+      </c>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="A148" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D148" s="1">
+        <v>23.59301587</v>
+      </c>
+      <c r="E148" s="2">
+        <v>31.15</v>
+      </c>
+      <c r="F148" s="2">
+        <v>733.08</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H148" s="1">
+        <v>0.2596</v>
+      </c>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="A149" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D149" s="1">
+        <v>89.08404384</v>
+      </c>
+      <c r="E149" s="2">
+        <v>8.21</v>
+      </c>
+      <c r="F149" s="2">
+        <v>733.08</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H149" s="1">
+        <v>0.2596</v>
+      </c>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="A150" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D150" s="1">
+        <v>89.08404384</v>
+      </c>
+      <c r="E150" s="2">
+        <v>8.24</v>
+      </c>
+      <c r="F150" s="2">
+        <v>732.41</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H150" s="1">
+        <v>0.2597</v>
+      </c>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="A151" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151" s="1">
+        <v>84.49017341</v>
+      </c>
+      <c r="E151" s="2">
+        <v>8.65</v>
+      </c>
+      <c r="F151" s="2">
+        <v>732.41</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H151" s="1">
+        <v>0.2596</v>
+      </c>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="A152" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D152" s="1">
+        <v>84.49017341</v>
+      </c>
+      <c r="E152" s="2">
+        <v>8.88</v>
+      </c>
+      <c r="F152" s="2">
+        <v>748.56</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H152" s="1">
+        <v>0.2595</v>
+      </c>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="A153" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153" s="1">
+        <v>52.95441595</v>
+      </c>
+      <c r="E153" s="2">
+        <v>14.04</v>
+      </c>
+      <c r="F153" s="2">
+        <v>745.13</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H153" s="1">
+        <v>0.2612</v>
+      </c>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="A154" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D154" s="1">
+        <v>52.95441595</v>
+      </c>
+      <c r="E154" s="2">
+        <v>13.52</v>
+      </c>
+      <c r="F154" s="2">
+        <v>714.37</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H154" s="1">
+        <v>0.2612</v>
+      </c>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="A155" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" s="1">
+        <v>52.12509144</v>
+      </c>
+      <c r="E155" s="2">
+        <v>13.67</v>
+      </c>
+      <c r="F155" s="2">
+        <v>714.37</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H155" s="1">
+        <v>0.2611</v>
+      </c>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="A156" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D156" s="1">
+        <v>52.12509144</v>
+      </c>
+      <c r="E156" s="2">
+        <v>12.74</v>
+      </c>
+      <c r="F156" s="2">
+        <v>662.62</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H156" s="1">
+        <v>0.2611</v>
+      </c>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="A157" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157" s="1">
+        <v>49.42931937</v>
+      </c>
+      <c r="E157" s="2">
+        <v>13.37</v>
+      </c>
+      <c r="F157" s="2">
+        <v>662.62</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H157" s="1">
+        <v>0.2611</v>
+      </c>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="A158" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D158" s="1">
+        <v>49.42931937</v>
+      </c>
+      <c r="E158" s="2">
+        <v>12.26</v>
+      </c>
+      <c r="F158" s="2">
+        <v>604.67</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H158" s="1">
+        <v>0.2607</v>
+      </c>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="A159" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F159" s="2">
+        <v>-604.67</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H159" s="1">
+        <v>0.2609</v>
       </c>
     </row>
   </sheetData>
